--- a/text_analysis/data/short_description_words_goal_ESP.xlsx
+++ b/text_analysis/data/short_description_words_goal_ESP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="973">
   <si>
     <t>niños</t>
   </si>
@@ -40,9 +40,6 @@
     <t>comunidades</t>
   </si>
   <si>
-    <t>través</t>
-  </si>
-  <si>
     <t>ayuda</t>
   </si>
   <si>
@@ -1532,9 +1529,6 @@
   </si>
   <si>
     <t>salud.</t>
-  </si>
-  <si>
-    <t>cada</t>
   </si>
   <si>
     <t>voto</t>
@@ -3296,7 +3290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C976"/>
+  <dimension ref="A1:C974"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3417,7 +3411,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3472,7 +3466,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3538,7 +3532,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3582,7 +3576,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3758,7 +3752,7 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4341,7 +4335,7 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -5639,7 +5633,7 @@
         <v>211</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -14010,28 +14004,6 @@
         <v>972</v>
       </c>
       <c r="C974">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="975" spans="1:3">
-      <c r="A975" s="1">
-        <v>973</v>
-      </c>
-      <c r="B975" t="s">
-        <v>973</v>
-      </c>
-      <c r="C975">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="976" spans="1:3">
-      <c r="A976" s="1">
-        <v>974</v>
-      </c>
-      <c r="B976" t="s">
-        <v>974</v>
-      </c>
-      <c r="C976">
         <v>1</v>
       </c>
     </row>
